--- a/lib/Outputs/Ukraine/Ukraine_nationality.xlsx
+++ b/lib/Outputs/Ukraine/Ukraine_nationality.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>name_language</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>classified_country</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>bio_language</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>location_language</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ukraine:judge</t>
         </is>
@@ -478,23 +483,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>bulgarian</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -510,23 +518,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>estonian</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>german</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -542,12 +553,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovenian</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,8 +568,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -574,23 +588,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>latvian</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -606,23 +623,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>slovak</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Poland</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>somali</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -638,23 +658,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovenian</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -670,12 +693,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovenian</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,8 +708,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -702,23 +728,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovenian</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -734,12 +763,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -749,8 +778,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -766,23 +798,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -798,23 +833,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -830,23 +868,26 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -862,23 +903,26 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>macedonian</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -894,12 +938,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -909,8 +953,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -926,12 +973,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -941,8 +988,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -958,14 +1008,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>ukrainian</t>
@@ -973,8 +1023,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -990,23 +1043,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>estonian</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1022,12 +1078,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,8 +1093,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1054,12 +1113,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1069,8 +1128,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1086,23 +1148,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>welsh</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>estonian</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1118,12 +1183,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1133,8 +1198,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1150,23 +1218,26 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>indonesian</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1182,23 +1253,26 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>dutch</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>portuguese</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1210,19 +1284,22 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
+          <t>catalan</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1238,23 +1315,26 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>swahili (macrolanguage)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1270,23 +1350,26 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1298,19 +1381,22 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
+          <t>macedonian</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1326,12 +1412,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1341,8 +1427,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1358,12 +1447,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1373,8 +1462,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1390,23 +1482,26 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>german</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G31" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1418,19 +1513,22 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
+          <t>bulgarian</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
         <is>
           <t>polish</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="G32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1446,12 +1544,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1461,8 +1559,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1478,23 +1579,26 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>bulgarian</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G34" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1510,12 +1614,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1525,8 +1629,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1542,23 +1649,26 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>turkish</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1574,23 +1684,26 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1606,12 +1719,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1621,8 +1734,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1638,23 +1754,26 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovak</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G39" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1670,12 +1789,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1685,8 +1804,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1702,23 +1824,26 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>indonesian</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G41" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1734,23 +1859,26 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovenian</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>slovenian</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1766,12 +1894,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>english</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1781,8 +1909,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1798,12 +1929,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1813,8 +1944,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1830,12 +1964,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>polish</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1845,8 +1979,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1862,12 +1999,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1877,8 +2014,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1894,23 +2034,26 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G47" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1926,23 +2069,26 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>finnish</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G48" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1958,23 +2104,26 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>english</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1990,24 +2139,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>swahili (macrolanguage)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>Ukraine 
 Georgia</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E50" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>estonian</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G50" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2023,23 +2175,26 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2055,23 +2210,26 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>italian</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G52" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2087,12 +2245,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2102,8 +2260,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2119,12 +2280,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2134,8 +2295,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2151,14 +2315,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>lithuanian</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>Ukraine.</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>ukrainian</t>
@@ -2166,8 +2330,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2183,23 +2350,26 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G56" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2215,23 +2385,26 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>polish</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G57" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2247,23 +2420,26 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>tagalog</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="G58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2279,23 +2455,26 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2311,23 +2490,26 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2343,23 +2525,26 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>indonesian</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2375,23 +2560,26 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>estonian</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>german</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G62" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2403,19 +2591,22 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
+          <t>spanish</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2431,12 +2622,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>swahili (macrolanguage)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2446,8 +2637,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2463,23 +2657,26 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>german</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G65" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2495,12 +2692,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>german</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2510,8 +2707,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2523,19 +2723,22 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
+          <t>finnish</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G67" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2551,23 +2754,26 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>somali</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G68" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2583,12 +2789,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>lithuanian</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2598,8 +2804,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2615,23 +2824,26 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>english</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>estonian</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G70" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2647,12 +2859,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2662,8 +2874,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2679,12 +2894,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2694,8 +2909,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2711,12 +2929,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2726,8 +2944,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2743,14 +2964,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>ukrainian</t>
@@ -2758,8 +2979,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2775,23 +2999,26 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>estonian</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2807,12 +3034,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>bulgarian</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2822,8 +3049,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2839,12 +3069,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2854,8 +3084,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2871,12 +3104,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>bulgarian</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2886,8 +3119,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2903,23 +3139,26 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>macedonian</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2935,23 +3174,26 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>german</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G80" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2967,23 +3209,26 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>finnish</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G81" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2995,19 +3240,22 @@
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3023,12 +3271,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3038,8 +3286,11 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3055,12 +3306,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3070,8 +3321,11 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3087,23 +3341,26 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G85" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3115,19 +3372,22 @@
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
+          <t>slovenian</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G86" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3143,14 +3403,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>slovenian</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>Ukraine.</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>ukrainian</t>
@@ -3158,8 +3418,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3175,23 +3438,26 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G88" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3207,12 +3473,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3222,8 +3488,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3239,23 +3508,26 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G90" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3271,12 +3543,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3286,8 +3558,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3303,23 +3578,26 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>catalan</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G92" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3335,12 +3613,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3350,8 +3628,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3367,23 +3648,26 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3399,14 +3683,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>ukrainian</t>
@@ -3414,8 +3698,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3431,12 +3718,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>afrikaans</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3446,8 +3733,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3463,23 +3753,26 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>german</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G97" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3495,12 +3788,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3510,8 +3803,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3527,12 +3823,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>macedonian</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3542,8 +3838,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3559,12 +3858,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>bulgarian</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3574,8 +3873,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3591,23 +3893,26 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>macedonian</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E101" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
           <t>slovenian</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G101" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3623,12 +3928,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3638,8 +3943,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3655,12 +3963,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3670,8 +3978,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3687,23 +3998,26 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G104" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3719,20 +4033,25 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>bulgarian</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3747,23 +4066,26 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>bulgarian</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
           <t>macedonian</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G106" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3779,12 +4101,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3794,8 +4116,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -3811,20 +4136,25 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>bulgarian</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3839,20 +4169,25 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>dutch</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>indonesian</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3867,12 +4202,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3882,8 +4217,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3899,23 +4237,26 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3931,23 +4272,26 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3963,12 +4307,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>danish</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3978,8 +4322,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -3995,12 +4342,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>macedonian</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4010,8 +4357,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G114" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -4027,12 +4377,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4042,8 +4392,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -4059,23 +4412,26 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>swahili (macrolanguage)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G116" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -4091,12 +4447,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>macedonian</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4106,8 +4462,11 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -4123,23 +4482,26 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>english</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G118" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -4151,19 +4513,22 @@
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
+          <t>hungarian</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -4179,23 +4544,26 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>welsh</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -4211,23 +4579,26 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>welsh</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -4243,23 +4614,26 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>french</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>spanish</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G122" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -4275,23 +4649,26 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovak</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G123" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -4307,12 +4684,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>albanian</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4322,8 +4699,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -4339,12 +4719,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4354,8 +4734,11 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -4371,23 +4754,26 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>welsh</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>swahili (macrolanguage)</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G126" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -4403,23 +4789,26 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>welsh</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G127" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -4431,19 +4820,22 @@
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -4459,12 +4851,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>turkish</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4474,8 +4866,11 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -4491,12 +4886,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4506,8 +4901,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -4523,12 +4921,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4538,8 +4936,11 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -4555,23 +4956,26 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>norwegian</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -4587,23 +4991,26 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>finnish</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G133" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -4615,16 +5022,21 @@
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr"/>
+          <t>swahili (macrolanguage)</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4639,12 +5051,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4654,8 +5066,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -4671,23 +5086,26 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>bulgarian</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E136" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G136" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -4703,23 +5121,26 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G137" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -4735,20 +5156,25 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4763,23 +5189,26 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>norwegian</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="G139" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -4795,12 +5224,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>catalan</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4810,8 +5239,11 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -4827,20 +5259,25 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>finnish</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4855,12 +5292,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4868,7 +5305,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4883,20 +5325,25 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
           <t>italian</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4911,12 +5358,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4924,7 +5371,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4939,20 +5391,25 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>macedonian</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
           <t>estonian</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4967,12 +5424,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4980,7 +5437,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4995,12 +5457,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5008,7 +5470,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5023,20 +5490,25 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>german</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5051,20 +5523,25 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>german</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5079,12 +5556,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5092,7 +5569,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5107,20 +5589,25 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5135,20 +5622,25 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>finnish</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5163,20 +5655,25 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5191,12 +5688,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5204,7 +5701,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5219,20 +5721,25 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>swahili (macrolanguage)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5247,20 +5754,25 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5275,20 +5787,25 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
           <t>estonian</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5303,12 +5820,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5316,7 +5833,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5331,20 +5853,25 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
           <t>estonian</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5359,20 +5886,25 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>english</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
           <t>czech</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5387,20 +5919,25 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5411,16 +5948,21 @@
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr"/>
+          <t>bulgarian</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5435,20 +5977,25 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>swahili (macrolanguage)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5463,20 +6010,25 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5491,20 +6043,25 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>Cyprus</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E165" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5519,20 +6076,25 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>macedonian</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
           <t>portuguese</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5547,20 +6109,25 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
           <t>macedonian</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5575,20 +6142,25 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
           <t>macedonian</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5603,20 +6175,25 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>german</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5631,12 +6208,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>bulgarian</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5644,7 +6221,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5659,20 +6241,25 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovenian</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5687,20 +6274,25 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>lithuanian</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>Ukraine/UK</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>estonian</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5715,20 +6307,25 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5743,12 +6340,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5756,7 +6353,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5771,20 +6373,25 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5799,20 +6406,25 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>norwegian</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5827,20 +6439,25 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5855,20 +6472,25 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovenian</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>estonian</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5883,12 +6505,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>bulgarian</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5896,7 +6518,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5911,20 +6538,25 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>bulgarian</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E180" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
           <t>indonesian</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5939,12 +6571,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5952,7 +6584,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5967,12 +6604,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5980,7 +6617,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5995,12 +6637,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6008,7 +6650,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6023,12 +6670,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6036,7 +6683,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6051,12 +6703,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>bulgarian</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6064,7 +6716,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6079,20 +6736,25 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovak</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
           <t>spanish</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>swahili (macrolanguage)</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6107,20 +6769,25 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6135,12 +6802,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>somali</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -6148,7 +6815,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6163,20 +6835,25 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6191,20 +6868,25 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
           <t>german</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6219,20 +6901,25 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>indonesian</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6247,20 +6934,25 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>tagalog</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
           <t>norwegian</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6275,20 +6967,25 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>macedonian</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6299,16 +6996,21 @@
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr">
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
         <is>
           <t>macedonian</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6323,20 +7025,25 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>indonesian</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6351,12 +7058,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6364,7 +7071,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6379,12 +7091,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>macedonian</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6392,7 +7104,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6407,20 +7124,25 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovak</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6435,20 +7157,25 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>english</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6463,12 +7190,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>indonesian</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -6476,7 +7203,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr"/>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6491,12 +7223,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>bulgarian</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -6504,7 +7236,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
